--- a/data/pca/factorExposure/factorExposure_2012-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-24.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002080202292951753</v>
+        <v>-0.001685491362591893</v>
       </c>
       <c r="C2">
-        <v>0.0294556001673867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02913978923567103</v>
+      </c>
+      <c r="D2">
+        <v>-0.005134708153878651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.003758221272866066</v>
+        <v>0.006568760877852337</v>
       </c>
       <c r="C4">
-        <v>0.08927972050026847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08389376713608235</v>
+      </c>
+      <c r="D4">
+        <v>-0.06888876180873012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.01029415717308017</v>
+        <v>0.01521185872604771</v>
       </c>
       <c r="C6">
-        <v>0.1155559030171577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1194882441886349</v>
+      </c>
+      <c r="D6">
+        <v>-0.01643705859533683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002284422797289781</v>
+        <v>0.004493216643568223</v>
       </c>
       <c r="C7">
-        <v>0.05559953228661173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05937156863736942</v>
+      </c>
+      <c r="D7">
+        <v>-0.03337390268777608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.003968830807480199</v>
+        <v>0.00460598475933399</v>
       </c>
       <c r="C8">
-        <v>0.04177710535590414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03641276091271854</v>
+      </c>
+      <c r="D8">
+        <v>-0.0389279397546158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003046820105569027</v>
+        <v>0.00605163839257382</v>
       </c>
       <c r="C9">
-        <v>0.0761773453713845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07517241921157078</v>
+      </c>
+      <c r="D9">
+        <v>-0.07000019966854476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0003583133023862942</v>
+        <v>0.001331583597089005</v>
       </c>
       <c r="C10">
-        <v>0.04342544636657425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04837581612709911</v>
+      </c>
+      <c r="D10">
+        <v>0.1854104067986492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003276654664857075</v>
+        <v>0.006824913391533029</v>
       </c>
       <c r="C11">
-        <v>0.08756975041489704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.08270267526077767</v>
+      </c>
+      <c r="D11">
+        <v>-0.06649364723238693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.002406225478092638</v>
+        <v>0.005041557529496199</v>
       </c>
       <c r="C12">
-        <v>0.07031316539542243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06805381286572756</v>
+      </c>
+      <c r="D12">
+        <v>-0.0481950851130416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.006212317455750948</v>
+        <v>0.009255531725794608</v>
       </c>
       <c r="C13">
-        <v>0.07663227556492905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07042454669615281</v>
+      </c>
+      <c r="D13">
+        <v>-0.05407994398562187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001334141992576114</v>
+        <v>-1.777731437795973e-05</v>
       </c>
       <c r="C14">
-        <v>0.04316025448828589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.043732890469949</v>
+      </c>
+      <c r="D14">
+        <v>-0.01037202176821497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.005127264451618195</v>
+        <v>0.006498000753227282</v>
       </c>
       <c r="C15">
-        <v>0.04207900994921589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04049777079276535</v>
+      </c>
+      <c r="D15">
+        <v>-0.02010266133244992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003707445359073746</v>
+        <v>0.00589770333185312</v>
       </c>
       <c r="C16">
-        <v>0.07262638836102779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06736366873595744</v>
+      </c>
+      <c r="D16">
+        <v>-0.05772607405389137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0071881174111205</v>
+        <v>0.00921010724480551</v>
       </c>
       <c r="C20">
-        <v>0.0726897697708941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06441318685763152</v>
+      </c>
+      <c r="D20">
+        <v>-0.04973328470301711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.007959547688131839</v>
+        <v>0.009266551735261058</v>
       </c>
       <c r="C21">
-        <v>0.02426714659882412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01969093665045638</v>
+      </c>
+      <c r="D21">
+        <v>-0.03959813195005082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01032816686958764</v>
+        <v>-0.007776695198324537</v>
       </c>
       <c r="C22">
-        <v>0.1008202360786388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08471152601856406</v>
+      </c>
+      <c r="D22">
+        <v>-0.1112939404074961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01000703603391443</v>
+        <v>-0.007425877635474117</v>
       </c>
       <c r="C23">
-        <v>0.1012421981731927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08519270569951183</v>
+      </c>
+      <c r="D23">
+        <v>-0.1124849111168263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003282919170972837</v>
+        <v>0.006796093036769912</v>
       </c>
       <c r="C24">
-        <v>0.08070912305826568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07913519939280951</v>
+      </c>
+      <c r="D24">
+        <v>-0.06531524282419621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.001330447468321854</v>
+        <v>0.004105426797885661</v>
       </c>
       <c r="C25">
-        <v>0.08514170684215308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.08018352110689521</v>
+      </c>
+      <c r="D25">
+        <v>-0.06257595755267577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00254822474171773</v>
+        <v>0.003983965742512376</v>
       </c>
       <c r="C26">
-        <v>0.04000605140357026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.04008192942580064</v>
+      </c>
+      <c r="D26">
+        <v>-0.01919078836581274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007302875578141492</v>
+        <v>-0.005167658148055505</v>
       </c>
       <c r="C28">
-        <v>0.08575781997936088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09480702202254146</v>
+      </c>
+      <c r="D28">
+        <v>0.3260763798536137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001927530523195885</v>
+        <v>0.003186033365185338</v>
       </c>
       <c r="C29">
-        <v>0.04696424040889886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04743857874443098</v>
+      </c>
+      <c r="D29">
+        <v>-0.007965733006430159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005593639722080467</v>
+        <v>0.01038124129435822</v>
       </c>
       <c r="C30">
-        <v>0.1473461534936386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1423201512283483</v>
+      </c>
+      <c r="D30">
+        <v>-0.1068982863297405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.00435606997090048</v>
+        <v>0.00627258887806721</v>
       </c>
       <c r="C31">
-        <v>0.04444740620851891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04506026729737155</v>
+      </c>
+      <c r="D31">
+        <v>-0.02997523074730715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001829015001903211</v>
+        <v>0.00318821043257413</v>
       </c>
       <c r="C32">
-        <v>0.04178920342624223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03727018004883865</v>
+      </c>
+      <c r="D32">
+        <v>-0.0137281079170276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.005846198505497794</v>
+        <v>0.009716713329533127</v>
       </c>
       <c r="C33">
-        <v>0.09214433960518838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09336433501590495</v>
+      </c>
+      <c r="D33">
+        <v>-0.0613711320160267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002850628138331243</v>
+        <v>0.005445599313068938</v>
       </c>
       <c r="C34">
-        <v>0.06120700730882806</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.06042897063462715</v>
+      </c>
+      <c r="D34">
+        <v>-0.05726167035085376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004019142006268541</v>
+        <v>0.005313028626700939</v>
       </c>
       <c r="C35">
-        <v>0.04090264346283681</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.0407487405158399</v>
+      </c>
+      <c r="D35">
+        <v>-0.01247420852913469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003017268942081817</v>
+        <v>-0.001543677498606988</v>
       </c>
       <c r="C36">
-        <v>0.02403811821875171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02551348698684059</v>
+      </c>
+      <c r="D36">
+        <v>-0.01949102236302317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.006357023990566465</v>
+        <v>0.008210047307358959</v>
       </c>
       <c r="C38">
-        <v>0.0390989719925981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03904921642821783</v>
+      </c>
+      <c r="D38">
+        <v>-0.01188801182839239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.005777593460735073</v>
+        <v>-0.001176222473863989</v>
       </c>
       <c r="C39">
-        <v>0.1190299122577736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.114187475431418</v>
+      </c>
+      <c r="D39">
+        <v>-0.08338575597599429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.000533816507955754</v>
+        <v>0.002959679849397405</v>
       </c>
       <c r="C40">
-        <v>0.08925284662824133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08513342432975755</v>
+      </c>
+      <c r="D40">
+        <v>-0.006389296431209921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.006298751882585277</v>
+        <v>0.007912200582679718</v>
       </c>
       <c r="C41">
-        <v>0.04075605587942784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04216344029770864</v>
+      </c>
+      <c r="D41">
+        <v>-0.04188307881804635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001059355762548331</v>
+        <v>0.004219235015456171</v>
       </c>
       <c r="C43">
-        <v>0.05257845929469131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05395834593801738</v>
+      </c>
+      <c r="D43">
+        <v>-0.02661906145939383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0002097745628306376</v>
+        <v>0.002547770031851471</v>
       </c>
       <c r="C44">
-        <v>0.1217566654412587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1046365606097934</v>
+      </c>
+      <c r="D44">
+        <v>-0.06286430100654489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-9.082595523656953e-05</v>
+        <v>0.0007563132699250128</v>
       </c>
       <c r="C46">
-        <v>0.03436944869852317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03140968592037996</v>
+      </c>
+      <c r="D46">
+        <v>-0.03275800622451987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00224974222384301</v>
+        <v>0.003361840785667007</v>
       </c>
       <c r="C47">
-        <v>0.0372346808317521</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03565796719372801</v>
+      </c>
+      <c r="D47">
+        <v>-0.01865919320331418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00652403305052141</v>
+        <v>0.007795717641700002</v>
       </c>
       <c r="C48">
-        <v>0.03124784403343859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03251280485318026</v>
+      </c>
+      <c r="D48">
+        <v>-0.02734600067427364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01215904526191299</v>
+        <v>0.0194564837310043</v>
       </c>
       <c r="C49">
-        <v>0.1859824473188622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1884103951157192</v>
+      </c>
+      <c r="D49">
+        <v>-0.008391306512019187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.002938980857712556</v>
+        <v>0.004262092608991313</v>
       </c>
       <c r="C50">
-        <v>0.04000454400643369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04354935812101195</v>
+      </c>
+      <c r="D50">
+        <v>-0.03883143161065968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.003152567111204961</v>
+        <v>0.004195463644804394</v>
       </c>
       <c r="C51">
-        <v>0.03052692986427918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02843515381773082</v>
+      </c>
+      <c r="D51">
+        <v>-0.02390610704973945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.01574106925649282</v>
+        <v>0.02215054192392669</v>
       </c>
       <c r="C53">
-        <v>0.1738562842006824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1719471449078498</v>
+      </c>
+      <c r="D53">
+        <v>-0.02025582232206715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.006456197490787774</v>
+        <v>0.008910564279196488</v>
       </c>
       <c r="C54">
-        <v>0.05720992427584981</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05709105044306364</v>
+      </c>
+      <c r="D54">
+        <v>-0.03849550842597857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.007262211582093365</v>
+        <v>0.01044966587605921</v>
       </c>
       <c r="C55">
-        <v>0.1134669053091201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1087486896223942</v>
+      </c>
+      <c r="D55">
+        <v>-0.03098017907754587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.01487673770665066</v>
+        <v>0.02199815142181954</v>
       </c>
       <c r="C56">
-        <v>0.1733513239941983</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1730138222909642</v>
+      </c>
+      <c r="D56">
+        <v>-0.01497964504617439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.01572166477954071</v>
+        <v>0.01786236593914327</v>
       </c>
       <c r="C58">
-        <v>0.1212287402115546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1050285212989222</v>
+      </c>
+      <c r="D58">
+        <v>-0.05563223341271731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002464737120790321</v>
+        <v>0.009063863599261854</v>
       </c>
       <c r="C59">
-        <v>0.1374021512636192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.164955893291427</v>
+      </c>
+      <c r="D59">
+        <v>0.3516820062866235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.0179776669235788</v>
+        <v>0.02694606764099887</v>
       </c>
       <c r="C60">
-        <v>0.2173943462971785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2260232859363874</v>
+      </c>
+      <c r="D60">
+        <v>-0.01458027820806438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.005021694683012483</v>
+        <v>-0.0016119096092889</v>
       </c>
       <c r="C61">
-        <v>0.09909254171323788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09505231594744504</v>
+      </c>
+      <c r="D61">
+        <v>-0.06124465937584445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1546203730086851</v>
+        <v>0.1572488757402062</v>
       </c>
       <c r="C62">
-        <v>0.1017767946548475</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1061068357131582</v>
+      </c>
+      <c r="D62">
+        <v>-0.01367952303721924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00497983684058328</v>
+        <v>0.006793802195460314</v>
       </c>
       <c r="C63">
-        <v>0.0554487380799057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05378705324605228</v>
+      </c>
+      <c r="D63">
+        <v>-0.03207607259392959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.01422749676803903</v>
+        <v>0.01740057581996959</v>
       </c>
       <c r="C64">
-        <v>0.1148720182921045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.111897141449121</v>
+      </c>
+      <c r="D64">
+        <v>-0.05037691332205244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0142110362368771</v>
+        <v>0.01825183428956065</v>
       </c>
       <c r="C65">
-        <v>0.1240768655461708</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1270649538718582</v>
+      </c>
+      <c r="D65">
+        <v>-0.01940007124313864</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007874048979119082</v>
+        <v>0.01424415977540448</v>
       </c>
       <c r="C66">
-        <v>0.1643496919886978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.163297260716214</v>
+      </c>
+      <c r="D66">
+        <v>-0.1167686476062937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.01150385773852158</v>
+        <v>0.01470462072515711</v>
       </c>
       <c r="C67">
-        <v>0.07308304836921087</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07269717077912921</v>
+      </c>
+      <c r="D67">
+        <v>-0.02546967779785894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.001129433785824899</v>
+        <v>0.00115359921948344</v>
       </c>
       <c r="C68">
-        <v>0.07278913259367112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08116333804064516</v>
+      </c>
+      <c r="D68">
+        <v>0.2641323611083444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002784203377449169</v>
+        <v>0.005641451591297721</v>
       </c>
       <c r="C69">
-        <v>0.05534866220746141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05329957527877092</v>
+      </c>
+      <c r="D69">
+        <v>-0.0363153099992527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.001301734425072699</v>
+        <v>0.002815472937287234</v>
       </c>
       <c r="C70">
-        <v>0.0022205945483226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009487488857060132</v>
+      </c>
+      <c r="D70">
+        <v>-0.0001443132028442163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0006456140235661928</v>
+        <v>0.003218242061629451</v>
       </c>
       <c r="C71">
-        <v>0.07390274909454522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08398261985990507</v>
+      </c>
+      <c r="D71">
+        <v>0.3041248536066302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.01245037928309377</v>
+        <v>0.01897540873840239</v>
       </c>
       <c r="C72">
-        <v>0.151434822088687</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1588619843326896</v>
+      </c>
+      <c r="D72">
+        <v>-0.009135939994329738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.02311938463656161</v>
+        <v>0.03221048559710939</v>
       </c>
       <c r="C73">
-        <v>0.2874205835898339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2859291765293666</v>
+      </c>
+      <c r="D73">
+        <v>-0.05619552392482916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.000939602776286007</v>
+        <v>0.00219679890131286</v>
       </c>
       <c r="C74">
-        <v>0.1069108278967433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1033341075568423</v>
+      </c>
+      <c r="D74">
+        <v>-0.03142761500029723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007090707682578314</v>
+        <v>0.01230346709924667</v>
       </c>
       <c r="C75">
-        <v>0.1216375929143228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1168674658362044</v>
+      </c>
+      <c r="D75">
+        <v>-0.02423705621148325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01804004220812357</v>
+        <v>0.02323720085021732</v>
       </c>
       <c r="C76">
-        <v>0.1495905031825736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1453588083810559</v>
+      </c>
+      <c r="D76">
+        <v>-0.0524719794137991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.01508542062895633</v>
+        <v>0.02107209878846105</v>
       </c>
       <c r="C77">
-        <v>0.1090786636830223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.104113998075543</v>
+      </c>
+      <c r="D77">
+        <v>-0.04532360265967906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.01056715646855501</v>
+        <v>0.01489587191719378</v>
       </c>
       <c r="C78">
-        <v>0.09543364691845048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1033432104646254</v>
+      </c>
+      <c r="D78">
+        <v>-0.07534778659063918</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.03312044050427446</v>
+        <v>0.03970654013382671</v>
       </c>
       <c r="C79">
-        <v>0.1602683760301623</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1559570129370431</v>
+      </c>
+      <c r="D79">
+        <v>-0.02562736542367973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.009427955867830115</v>
+        <v>0.009738447097442298</v>
       </c>
       <c r="C80">
-        <v>0.0475618687122827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03913670164695007</v>
+      </c>
+      <c r="D80">
+        <v>-0.02413390117041278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.01123777225888866</v>
+        <v>0.01648471254160119</v>
       </c>
       <c r="C81">
-        <v>0.1326328515514251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.1298785834296308</v>
+      </c>
+      <c r="D81">
+        <v>-0.03621994825706862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.01438730080778504</v>
+        <v>0.02028127473819251</v>
       </c>
       <c r="C82">
-        <v>0.1427342046893532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.136653457662769</v>
+      </c>
+      <c r="D82">
+        <v>-0.03671259849714498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009537174644995566</v>
+        <v>0.01222090397642129</v>
       </c>
       <c r="C83">
-        <v>0.07435855218577024</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06691819330558266</v>
+      </c>
+      <c r="D83">
+        <v>-0.0447758422747428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.006739919332356341</v>
+        <v>0.007427766409950163</v>
       </c>
       <c r="C84">
-        <v>0.02841027997872244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03487786349139042</v>
+      </c>
+      <c r="D84">
+        <v>-0.00931651022454668</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.02629089369013731</v>
+        <v>0.0299426682099975</v>
       </c>
       <c r="C85">
-        <v>0.1387286439223014</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1222415380999344</v>
+      </c>
+      <c r="D85">
+        <v>-0.036721191914525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001535706686878903</v>
+        <v>0.00340223894281747</v>
       </c>
       <c r="C86">
-        <v>0.05214555151147538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.04861581667151877</v>
+      </c>
+      <c r="D86">
+        <v>-0.0153922686358863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008225147157426132</v>
+        <v>0.01301989277693263</v>
       </c>
       <c r="C87">
-        <v>0.1385015872263826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1284230492139612</v>
+      </c>
+      <c r="D87">
+        <v>-0.07389951169860841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.005028957979128072</v>
+        <v>-0.002538482869815826</v>
       </c>
       <c r="C88">
-        <v>0.06963086029877719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0647527742698394</v>
+      </c>
+      <c r="D88">
+        <v>-0.02632241170511653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.008766428207208719</v>
+        <v>-0.003735628929355258</v>
       </c>
       <c r="C89">
-        <v>0.109085370222836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.126145023835713</v>
+      </c>
+      <c r="D89">
+        <v>0.322585566487087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0008479760404856748</v>
+        <v>0.004179045565195001</v>
       </c>
       <c r="C90">
-        <v>0.09864361989947616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1088485890765035</v>
+      </c>
+      <c r="D90">
+        <v>0.3144943189756058</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.007338382150750653</v>
+        <v>0.01114401053471303</v>
       </c>
       <c r="C91">
-        <v>0.1030671119545224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09892640672217473</v>
+      </c>
+      <c r="D91">
+        <v>-0.02710319473266412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.004207332244005904</v>
+        <v>-0.0007102055143410176</v>
       </c>
       <c r="C92">
-        <v>0.1080224290626811</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.12004486550818</v>
+      </c>
+      <c r="D92">
+        <v>0.330176025964253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001710562724099283</v>
+        <v>0.001799568179879551</v>
       </c>
       <c r="C93">
-        <v>0.08732178015754649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1006220276273934</v>
+      </c>
+      <c r="D93">
+        <v>0.3018217527860073</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.01699751964547376</v>
+        <v>0.02201442446232599</v>
       </c>
       <c r="C94">
-        <v>0.1512704876981389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1348439007825919</v>
+      </c>
+      <c r="D94">
+        <v>-0.05395341666071939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.01508930154021595</v>
+        <v>0.01889676970833017</v>
       </c>
       <c r="C95">
-        <v>0.1281047310483299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1234432161376711</v>
+      </c>
+      <c r="D95">
+        <v>-0.06146624932208739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.02814805800597275</v>
+        <v>0.03896397433917235</v>
       </c>
       <c r="C97">
-        <v>0.2009803914503575</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2260922408574841</v>
+      </c>
+      <c r="D97">
+        <v>0.01175512742459862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.02852313704970856</v>
+        <v>0.03871237527568104</v>
       </c>
       <c r="C98">
-        <v>0.2705767868506544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2656790802923568</v>
+      </c>
+      <c r="D98">
+        <v>-0.03576665397477291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833958022924844</v>
+        <v>0.9795095363373278</v>
       </c>
       <c r="C99">
-        <v>-0.08844304561554311</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.125765036917966</v>
+      </c>
+      <c r="D99">
+        <v>0.02686569120803388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001919414958270223</v>
+        <v>0.003181235568023435</v>
       </c>
       <c r="C101">
-        <v>0.04723788272899013</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0476332515994431</v>
+      </c>
+      <c r="D101">
+        <v>-0.008629132189878753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
